--- a/Documents/IWF_SimuCam_Commands_v0-1-9.xlsx
+++ b/Documents/IWF_SimuCam_Commands_v0-1-9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfranca\Development\GitHub\SimuCam_Development_Data_Transmission\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90542CF5-8AA1-4609-BBA6-26E455B8919E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CF1964-7954-44B9-AB7C-A1C6F48637B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="224">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Version</t>
-  </si>
-  <si>
-    <t>0.1.8</t>
   </si>
   <si>
     <t>Change Date</t>
@@ -266,66 +263,18 @@
     <t>ERROR_ONE_SHOT_SPW</t>
   </si>
   <si>
-    <t>Error type code - Error injection SpW types:	
-0-parity
-1-disconnect
-2-escape sequence
-3-character sequence
-4-credit
-5-EEP
-6-invalid destination
-Info:  The error injection is independent from packets, and it could be activated when the SimuCam is in RUNNING mode</t>
-  </si>
-  <si>
     <t>ERROR_REPEAT_SPW</t>
   </si>
   <si>
-    <t>Error type code - Error injection SpW types:	
-0-parity
-1-disconnect
-2-escape sequence
-3-character sequence
-4-credit
-5-EEP
-6-invalid destination
-Info: The error injection is independent from packets.</t>
-  </si>
-  <si>
     <t>N-Repeat</t>
   </si>
   <si>
     <t>Number of times to repeat</t>
   </si>
   <si>
-    <t>Interval</t>
-  </si>
-  <si>
-    <t>Interval between repetition (ms)</t>
-  </si>
-  <si>
     <t>ERROR_ONE_SHOT_RMAP</t>
   </si>
   <si>
-    <t>Error type code - Error injection RMAP types:
-0-Initiator Logical Address
-1-Instructions Field
-2-Packet Type Instruction
-3-Write/Read Instruction Command
-4-Verify Data Before Reply Instruction Command
-5-Reply Instruction Command
-6-Increment Address Instruction Command
-7-Reply Address Length Instruction Command
-8-Status
-9-Target Logical Address
-10-Transaction Identifier
-11-Data Length
-12-Header CRC
-13-Header EEP
-14-Data CRC
-15-Data EEP
-Info: The errors could be activated when the SimuCam is in RUNNING mode</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -333,25 +282,6 @@
   </si>
   <si>
     <t>ERROR_REPEAT_RMAP</t>
-  </si>
-  <si>
-    <t>Error type code - Error injection RMAP types:
-0-Initiator Logical Address
-1-Instructions Field
-2-Packet Type Instruction
-3-Write/Read Instruction Command
-4-Verify Data Before Reply Instruction Command
-5-Reply Instruction Command
-6-Increment Address Instruction Command
-7-Reply Address Length Instruction Command
-8-Status
-9-Target Logical Address
-10-Transaction Identifier
-11-Data Length
-12-Header CRC
-13-Header EEP
-14-Data CRC
-15-Data EEP</t>
   </si>
   <si>
     <t>EVENT_SET</t>
@@ -922,6 +852,45 @@
 14-Data CRC
 15-Data EEP
 16-Missing Response</t>
+  </si>
+  <si>
+    <t>DEPRECATED</t>
+  </si>
+  <si>
+    <t>Rodrigo França</t>
+  </si>
+  <si>
+    <t>rodrigo.franca@maua.br</t>
+  </si>
+  <si>
+    <t>Metadata:_x000D_
+- NA_x000D_
+_x000D_
+TCs:_x000D_
+-TCs changed in this release:_x000D_
+ERROR_ONE_SHOT_SPW: TC deprecated_x000D_
+ERROR_REPEAT_SPW: TC deprecated_x000D_
+ERROR_ONE_SHOT_RMAP: TC deprecated_x000D_
+ERROR_REPEAT_RMAP: TC deprecated_x000D_
+REPEAT_DATA_TRANS: TC added_x000D_
+ERROR_SPW_ONE_SHOT: TC added_x000D_
+ERROR_SPW_REPEAT: TC added_x000D_
+ERROR_SPW_CANCEL_INJ: TC added_x000D_
+ERROR_RMAP_ONE_SHOT: TC added_x000D_
+ERROR_RMAP_REPEAT: TC added_x000D_
+ERROR_RMAP_CANCEL_INJ: TC added_x000D_
+_x000D_
+TMs:_x000D_
+- NA_x000D_
+_x000D_
+Internal:_x000D_
+- NA_x000D_
+_x000D_
+Change Log:_x000D_
+- Info Update</t>
+  </si>
+  <si>
+    <t>0.1.9</t>
   </si>
 </sst>
 </file>
@@ -1415,7 +1384,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1611,9 +1580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1656,17 +1622,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1686,27 +1643,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1737,6 +1679,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1755,24 +1706,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1814,6 +1747,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2140,9 +2079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6C87B92-FD46-4DA5-9994-555191865304}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2165,7 +2104,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="44">
-        <v>44383</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2173,16 +2112,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>4</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="47">
         <f ca="1">NOW()</f>
-        <v>44907.013437615744</v>
+        <v>44911.452590277775</v>
       </c>
     </row>
   </sheetData>
@@ -2193,13 +2132,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D66" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I75" sqref="I75"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2150,7 @@
     <col min="5" max="5" width="16.85546875" style="13" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.5703125" style="90" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.7109375" style="13" customWidth="1"/>
     <col min="11" max="11" width="18.140625" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.5703125" style="12" bestFit="1" customWidth="1"/>
@@ -2221,68 +2160,68 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="C1" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="D1" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="E1" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="F1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="G1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="H1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="I1" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="88" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="109" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
+      <c r="B2" s="112">
+        <v>1</v>
+      </c>
+      <c r="C2" s="112">
+        <v>101</v>
+      </c>
+      <c r="D2" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="124">
-        <v>1</v>
-      </c>
-      <c r="C2" s="124">
-        <v>101</v>
-      </c>
-      <c r="D2" s="71" t="s">
+      <c r="E2" s="70">
+        <v>1</v>
+      </c>
+      <c r="F2" s="70">
+        <v>8</v>
+      </c>
+      <c r="G2" s="70">
+        <v>0</v>
+      </c>
+      <c r="H2" s="70">
+        <v>7</v>
+      </c>
+      <c r="I2" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="71">
-        <v>1</v>
-      </c>
-      <c r="F2" s="71">
-        <v>8</v>
-      </c>
-      <c r="G2" s="71">
-        <v>0</v>
-      </c>
-      <c r="H2" s="71">
-        <v>7</v>
-      </c>
-      <c r="I2" s="89" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="110"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="10" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="10" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -2296,16 +2235,16 @@
       <c r="H3" s="10">
         <v>1</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="110"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -2319,36 +2258,36 @@
       <c r="H4" s="10">
         <v>3</v>
       </c>
-      <c r="I4" s="90" t="s">
+      <c r="I4" s="86" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="111"/>
+      <c r="B5" s="114"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="71" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="123"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="72" t="s">
+      <c r="E5" s="71">
+        <v>1</v>
+      </c>
+      <c r="F5" s="71">
+        <v>11</v>
+      </c>
+      <c r="G5" s="71">
+        <v>0</v>
+      </c>
+      <c r="H5" s="71">
+        <v>1</v>
+      </c>
+      <c r="I5" s="87" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="72">
-        <v>1</v>
-      </c>
-      <c r="F5" s="72">
-        <v>11</v>
-      </c>
-      <c r="G5" s="72">
-        <v>0</v>
-      </c>
-      <c r="H5" s="72">
-        <v>1</v>
-      </c>
-      <c r="I5" s="91" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="112">
         <v>1</v>
@@ -2356,116 +2295,116 @@
       <c r="C6" s="112">
         <v>102</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="70">
+        <v>1</v>
+      </c>
+      <c r="F6" s="70">
+        <v>8</v>
+      </c>
+      <c r="G6" s="70">
+        <v>0</v>
+      </c>
+      <c r="H6" s="70">
+        <v>1</v>
+      </c>
+      <c r="I6" s="85" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="79">
-        <v>1</v>
-      </c>
-      <c r="F6" s="79">
-        <v>8</v>
-      </c>
-      <c r="G6" s="79">
-        <v>0</v>
-      </c>
-      <c r="H6" s="79">
-        <v>1</v>
-      </c>
-      <c r="I6" s="92" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="110"/>
       <c r="B7" s="113"/>
       <c r="C7" s="113"/>
-      <c r="D7" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="80">
-        <v>1</v>
-      </c>
-      <c r="F7" s="80">
+      <c r="D7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
         <v>9</v>
       </c>
-      <c r="G7" s="80">
-        <v>0</v>
-      </c>
-      <c r="H7" s="80">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
         <v>7</v>
       </c>
-      <c r="I7" s="93" t="s">
-        <v>27</v>
+      <c r="I7" s="86" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="110"/>
       <c r="B8" s="113"/>
       <c r="C8" s="113"/>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>10</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>65535</v>
+      </c>
+      <c r="I8" s="86" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="80">
-        <v>2</v>
-      </c>
-      <c r="F8" s="80">
-        <v>10</v>
-      </c>
-      <c r="G8" s="80">
-        <v>0</v>
-      </c>
-      <c r="H8" s="80">
-        <v>65535</v>
-      </c>
-      <c r="I8" s="93" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="110"/>
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="10">
+        <v>8</v>
+      </c>
+      <c r="F9" s="10">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="86" t="s">
         <v>30</v>
-      </c>
-      <c r="E9" s="80">
-        <v>8</v>
-      </c>
-      <c r="F9" s="80">
-        <v>12</v>
-      </c>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="93" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="111"/>
       <c r="B10" s="114"/>
       <c r="C10" s="114"/>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="81">
+      <c r="F10" s="71">
         <v>20</v>
       </c>
-      <c r="G10" s="81" t="s">
+      <c r="G10" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="94" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="78" t="s">
-        <v>36</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -2474,7 +2413,7 @@
         <v>103</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="21">
         <v>8</v>
@@ -2483,69 +2422,69 @@
         <v>8</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="95" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="I11" s="88" t="s">
+        <v>30</v>
       </c>
       <c r="M11" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="109" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="121" t="s">
+      <c r="B12" s="112">
+        <v>1</v>
+      </c>
+      <c r="C12" s="112">
+        <v>125</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="70">
+        <v>1</v>
+      </c>
+      <c r="F12" s="70">
+        <v>8</v>
+      </c>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="111"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="71">
+        <v>8</v>
+      </c>
+      <c r="F13" s="71">
+        <v>9</v>
+      </c>
+      <c r="G13" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" s="87" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="77" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" s="124">
-        <v>1</v>
-      </c>
-      <c r="C12" s="124">
-        <v>125</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="71">
-        <v>1</v>
-      </c>
-      <c r="F12" s="71">
-        <v>8</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="123"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="72">
-        <v>8</v>
-      </c>
-      <c r="F13" s="72">
-        <v>9</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="91" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>39</v>
       </c>
       <c r="B14" s="21">
         <v>1</v>
@@ -2554,7 +2493,7 @@
         <v>105</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="21">
         <v>1</v>
@@ -2568,13 +2507,13 @@
       <c r="H14" s="21">
         <v>1</v>
       </c>
-      <c r="I14" s="95" t="s">
+      <c r="I14" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="77" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="78" t="s">
-        <v>42</v>
       </c>
       <c r="B15" s="21">
         <v>1</v>
@@ -2583,27 +2522,27 @@
         <v>106</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="77" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="78" t="s">
-        <v>44</v>
       </c>
       <c r="B16" s="21">
         <v>1</v>
@@ -2612,25 +2551,25 @@
         <v>107</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="95"/>
+        <v>33</v>
+      </c>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
-        <v>45</v>
+      <c r="A17" s="77" t="s">
+        <v>44</v>
       </c>
       <c r="B17" s="21">
         <v>1</v>
@@ -2639,78 +2578,78 @@
         <v>108</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="95"/>
+        <v>33</v>
+      </c>
+      <c r="I17" s="88"/>
       <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121" t="s">
+      <c r="A18" s="109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="112">
+        <v>1</v>
+      </c>
+      <c r="C18" s="112">
+        <v>109</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="70">
+        <v>1</v>
+      </c>
+      <c r="F18" s="70">
+        <v>8</v>
+      </c>
+      <c r="G18" s="70">
+        <v>0</v>
+      </c>
+      <c r="H18" s="70">
+        <v>7</v>
+      </c>
+      <c r="I18" s="85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="111"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="124">
-        <v>1</v>
-      </c>
-      <c r="C18" s="124">
-        <v>109</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="71">
-        <v>1</v>
-      </c>
-      <c r="F18" s="71">
-        <v>8</v>
-      </c>
-      <c r="G18" s="71">
-        <v>0</v>
-      </c>
-      <c r="H18" s="71">
-        <v>7</v>
-      </c>
-      <c r="I18" s="89" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="123"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="72" t="s">
+      <c r="E19" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="71">
+        <v>9</v>
+      </c>
+      <c r="G19" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="72">
-        <v>9</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="91" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="77" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78" t="s">
-        <v>49</v>
       </c>
       <c r="B20" s="21">
         <v>1</v>
@@ -2719,7 +2658,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20" s="21">
         <v>1</v>
@@ -2733,167 +2672,167 @@
       <c r="H20" s="21">
         <v>7</v>
       </c>
-      <c r="I20" s="95" t="s">
+      <c r="I20" s="88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="109" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="B21" s="112">
+        <v>1</v>
+      </c>
+      <c r="C21" s="112">
+        <v>111</v>
+      </c>
+      <c r="D21" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="124">
-        <v>1</v>
-      </c>
-      <c r="C21" s="124">
-        <v>111</v>
-      </c>
-      <c r="D21" s="71" t="s">
+      <c r="E21" s="70">
+        <v>1</v>
+      </c>
+      <c r="F21" s="70">
+        <v>8</v>
+      </c>
+      <c r="G21" s="70">
+        <v>0</v>
+      </c>
+      <c r="H21" s="70">
+        <v>2</v>
+      </c>
+      <c r="I21" s="85" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="71">
-        <v>1</v>
-      </c>
-      <c r="F21" s="71">
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="111"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="71">
+        <v>1</v>
+      </c>
+      <c r="F22" s="71">
+        <v>9</v>
+      </c>
+      <c r="G22" s="71">
+        <v>0</v>
+      </c>
+      <c r="H22" s="71">
+        <v>2</v>
+      </c>
+      <c r="I22" s="87" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="112">
+        <v>1</v>
+      </c>
+      <c r="C23" s="112">
+        <v>112</v>
+      </c>
+      <c r="D23" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="70">
+        <v>1</v>
+      </c>
+      <c r="F23" s="70">
         <v>8</v>
       </c>
-      <c r="G21" s="71">
-        <v>0</v>
-      </c>
-      <c r="H21" s="71">
-        <v>2</v>
-      </c>
-      <c r="I21" s="89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="123"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="72">
-        <v>1</v>
-      </c>
-      <c r="F22" s="72">
-        <v>9</v>
-      </c>
-      <c r="G22" s="72">
-        <v>0</v>
-      </c>
-      <c r="H22" s="72">
-        <v>2</v>
-      </c>
-      <c r="I22" s="91" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="124">
-        <v>1</v>
-      </c>
-      <c r="C23" s="124">
-        <v>112</v>
-      </c>
-      <c r="D23" s="66" t="s">
+      <c r="G23" s="70">
+        <v>0</v>
+      </c>
+      <c r="H23" s="70">
+        <v>1</v>
+      </c>
+      <c r="I23" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="71">
-        <v>1</v>
-      </c>
-      <c r="F23" s="71">
+    </row>
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="111"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="71">
         <v>8</v>
       </c>
-      <c r="G23" s="71">
-        <v>0</v>
-      </c>
-      <c r="H23" s="71">
-        <v>1</v>
-      </c>
-      <c r="I23" s="89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="123"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
-      <c r="D24" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="72">
-        <v>8</v>
-      </c>
-      <c r="F24" s="72">
+      <c r="F24" s="71">
         <f>F23+E23</f>
         <v>9</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="91" t="s">
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="87" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="109" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121" t="s">
+      <c r="B25" s="112">
+        <v>1</v>
+      </c>
+      <c r="C25" s="112">
+        <v>113</v>
+      </c>
+      <c r="D25" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="124">
-        <v>1</v>
-      </c>
-      <c r="C25" s="124">
-        <v>113</v>
-      </c>
-      <c r="D25" s="71" t="s">
+      <c r="E25" s="70">
+        <v>1</v>
+      </c>
+      <c r="F25" s="70">
+        <v>8</v>
+      </c>
+      <c r="G25" s="70">
+        <v>0</v>
+      </c>
+      <c r="H25" s="70">
+        <v>2</v>
+      </c>
+      <c r="I25" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="71">
-        <v>1</v>
-      </c>
-      <c r="F25" s="71">
-        <v>8</v>
-      </c>
-      <c r="G25" s="71">
-        <v>0</v>
-      </c>
-      <c r="H25" s="71">
-        <v>2</v>
-      </c>
-      <c r="I25" s="89" t="s">
+    </row>
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="111"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="71" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="72">
+      <c r="E26" s="71">
         <v>4</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="71">
         <v>9</v>
       </c>
-      <c r="G26" s="72">
-        <v>0</v>
-      </c>
-      <c r="H26" s="72">
+      <c r="G26" s="71">
+        <v>0</v>
+      </c>
+      <c r="H26" s="71">
         <f>(2^32)-1</f>
         <v>4294967295</v>
       </c>
-      <c r="I26" s="91" t="s">
+      <c r="I26" s="87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="77" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
-        <v>64</v>
       </c>
       <c r="B27" s="21">
         <v>1</v>
@@ -2902,27 +2841,27 @@
         <v>114</v>
       </c>
       <c r="D27" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="95" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="77" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="78" t="s">
-        <v>67</v>
       </c>
       <c r="B28" s="21">
         <v>1</v>
@@ -2931,27 +2870,27 @@
         <v>115</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H28" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="77" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="78" t="s">
-        <v>69</v>
       </c>
       <c r="B29" s="21">
         <v>1</v>
@@ -2960,27 +2899,27 @@
         <v>116</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="77" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>71</v>
       </c>
       <c r="B30" s="21">
         <v>1</v>
@@ -2993,11 +2932,11 @@
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="95"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>72</v>
+      <c r="A31" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="21">
         <v>1</v>
@@ -3006,7 +2945,7 @@
         <v>118</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="21">
         <v>8</v>
@@ -3015,1155 +2954,914 @@
         <v>8</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I31" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="101" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="180.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="118" t="s">
+      <c r="B32" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="115">
-        <v>1</v>
-      </c>
-      <c r="C32" s="115">
-        <v>119</v>
-      </c>
-      <c r="D32" s="82" t="s">
+      <c r="B33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I33" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="100" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="21">
+        <v>1</v>
+      </c>
+      <c r="C36" s="21">
+        <v>123</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="21">
+        <v>1</v>
+      </c>
+      <c r="F36" s="21">
         <v>8</v>
       </c>
-      <c r="E32" s="82">
-        <v>1</v>
-      </c>
-      <c r="F32" s="82">
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>1</v>
+      </c>
+      <c r="I36" s="88" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="21">
+        <v>1</v>
+      </c>
+      <c r="C37" s="21">
+        <v>124</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="21">
         <v>8</v>
       </c>
-      <c r="G32" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="96" t="s">
+      <c r="F37" s="21">
+        <v>8</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="88" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="118">
+        <v>1</v>
+      </c>
+      <c r="C38" s="118">
+        <v>125</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="70">
+        <v>1</v>
+      </c>
+      <c r="F38" s="70">
+        <v>8</v>
+      </c>
+      <c r="G38" s="70">
+        <v>0</v>
+      </c>
+      <c r="H38" s="70">
+        <v>7</v>
+      </c>
+      <c r="I38" s="85" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="116"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>9</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="86" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="117"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="71">
+        <v>1</v>
+      </c>
+      <c r="F40" s="71">
+        <v>10</v>
+      </c>
+      <c r="G40" s="71">
+        <v>0</v>
+      </c>
+      <c r="H40" s="71">
+        <v>1</v>
+      </c>
+      <c r="I40" s="87" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="21">
+        <v>1</v>
+      </c>
+      <c r="C41" s="21">
+        <v>126</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="21">
+        <v>1</v>
+      </c>
+      <c r="F41" s="21">
+        <v>8</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <v>1</v>
+      </c>
+      <c r="I41" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="103" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="106">
+        <v>1</v>
+      </c>
+      <c r="C42" s="106">
+        <v>127</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="78">
+        <v>1</v>
+      </c>
+      <c r="F42" s="78">
+        <v>8</v>
+      </c>
+      <c r="G42" s="79">
+        <v>0</v>
+      </c>
+      <c r="H42" s="79">
+        <v>7</v>
+      </c>
+      <c r="I42" s="94" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="104"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="D43" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="79">
+        <v>1</v>
+      </c>
+      <c r="F43" s="79">
+        <v>9</v>
+      </c>
+      <c r="G43" s="79">
+        <v>0</v>
+      </c>
+      <c r="H43" s="79">
+        <v>1</v>
+      </c>
+      <c r="I43" s="94" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="104"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="J32" s="65"/>
-    </row>
-    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="120"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="83">
-        <v>1</v>
-      </c>
-      <c r="F33" s="83">
-        <v>9</v>
-      </c>
-      <c r="G33" s="83">
-        <v>0</v>
-      </c>
-      <c r="H33" s="83">
-        <v>7</v>
-      </c>
-      <c r="I33" s="97" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="165.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="115">
-        <v>1</v>
-      </c>
-      <c r="C34" s="115">
-        <v>120</v>
-      </c>
-      <c r="D34" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="82">
-        <v>1</v>
-      </c>
-      <c r="F34" s="82">
-        <v>8</v>
-      </c>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="96" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="84">
-        <v>1</v>
-      </c>
-      <c r="F35" s="84">
-        <v>9</v>
-      </c>
-      <c r="G35" s="84">
-        <v>0</v>
-      </c>
-      <c r="H35" s="84">
-        <v>7</v>
-      </c>
-      <c r="I35" s="98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="119"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="84" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="84">
+      <c r="E44" s="79">
         <v>2</v>
       </c>
-      <c r="F36" s="84">
+      <c r="F44" s="79">
         <v>10</v>
       </c>
-      <c r="G36" s="84">
-        <v>0</v>
-      </c>
-      <c r="H36" s="84">
+      <c r="G44" s="79">
+        <v>0</v>
+      </c>
+      <c r="H44" s="79">
         <v>65535</v>
       </c>
-      <c r="I36" s="98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="120"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="83" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="83">
+      <c r="I44" s="95" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="105"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="80">
         <v>4</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F45" s="80">
         <v>12</v>
       </c>
-      <c r="G37" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="85">
+      <c r="G45" s="80">
+        <v>0</v>
+      </c>
+      <c r="H45" s="93">
         <f>(2^32)-1</f>
         <v>4294967295</v>
       </c>
-      <c r="I37" s="97" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="315.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="115">
-        <v>1</v>
-      </c>
-      <c r="C38" s="115">
-        <v>121</v>
-      </c>
-      <c r="D38" s="82" t="s">
+      <c r="I45" s="96" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="106">
+        <v>1</v>
+      </c>
+      <c r="C46" s="106">
+        <v>128</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" s="78">
+        <v>1</v>
+      </c>
+      <c r="F46" s="78">
         <v>8</v>
       </c>
-      <c r="E38" s="82">
-        <v>1</v>
-      </c>
-      <c r="F38" s="82">
+      <c r="G46" s="78">
+        <v>0</v>
+      </c>
+      <c r="H46" s="78">
+        <v>7</v>
+      </c>
+      <c r="I46" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" s="65"/>
+    </row>
+    <row r="47" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="105"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="80">
+        <v>1</v>
+      </c>
+      <c r="F47" s="80">
+        <f>F46+E46</f>
+        <v>9</v>
+      </c>
+      <c r="G47" s="80">
+        <v>0</v>
+      </c>
+      <c r="H47" s="80">
+        <v>5</v>
+      </c>
+      <c r="I47" s="98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="106">
+        <v>1</v>
+      </c>
+      <c r="C48" s="106">
+        <v>129</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="78">
+        <v>1</v>
+      </c>
+      <c r="F48" s="78">
         <v>8</v>
       </c>
-      <c r="G38" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="I38" s="96" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="119"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="84" t="s">
+      <c r="G48" s="78">
+        <v>0</v>
+      </c>
+      <c r="H48" s="78">
+        <v>7</v>
+      </c>
+      <c r="I48" s="97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="104"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="79">
+        <v>1</v>
+      </c>
+      <c r="F49" s="79">
+        <f>F48+E48</f>
+        <v>9</v>
+      </c>
+      <c r="G49" s="79">
+        <v>0</v>
+      </c>
+      <c r="H49" s="79">
+        <v>5</v>
+      </c>
+      <c r="I49" s="95" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="104"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="79">
+        <v>2</v>
+      </c>
+      <c r="F50" s="79">
+        <f>F49+E49</f>
+        <v>10</v>
+      </c>
+      <c r="G50" s="79">
+        <v>0</v>
+      </c>
+      <c r="H50" s="79">
+        <v>65535</v>
+      </c>
+      <c r="I50" s="95" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="82" t="s">
+        <v>214</v>
+      </c>
+      <c r="B51" s="83">
+        <v>1</v>
+      </c>
+      <c r="C51" s="83">
+        <v>130</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="83">
+        <v>1</v>
+      </c>
+      <c r="F51" s="83">
+        <v>8</v>
+      </c>
+      <c r="G51" s="83">
+        <v>0</v>
+      </c>
+      <c r="H51" s="83">
+        <v>7</v>
+      </c>
+      <c r="I51" s="99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="B52" s="106">
+        <v>1</v>
+      </c>
+      <c r="C52" s="106">
+        <v>131</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="78">
+        <v>1</v>
+      </c>
+      <c r="F52" s="78">
+        <v>8</v>
+      </c>
+      <c r="G52" s="78">
+        <v>0</v>
+      </c>
+      <c r="H52" s="78">
+        <v>7</v>
+      </c>
+      <c r="I52" s="97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A53" s="104"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="79">
+        <v>1</v>
+      </c>
+      <c r="F53" s="79">
+        <f t="shared" ref="F53:F54" si="0">F52+E52</f>
+        <v>9</v>
+      </c>
+      <c r="G53" s="79">
+        <v>0</v>
+      </c>
+      <c r="H53" s="79">
         <v>16</v>
       </c>
-      <c r="E39" s="84">
-        <v>1</v>
-      </c>
-      <c r="F39" s="84">
-        <v>9</v>
-      </c>
-      <c r="G39" s="84">
-        <v>0</v>
-      </c>
-      <c r="H39" s="84">
-        <v>7</v>
-      </c>
-      <c r="I39" s="98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="120"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="83">
+      <c r="I53" s="95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="105"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="108"/>
+      <c r="D54" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="80">
         <v>4</v>
       </c>
-      <c r="F40" s="83">
+      <c r="F54" s="80">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G40" s="83">
-        <v>0</v>
-      </c>
-      <c r="H40" s="83">
+      <c r="G54" s="80">
+        <v>0</v>
+      </c>
+      <c r="H54" s="80">
         <f>(2^32)-1</f>
         <v>4294967295</v>
       </c>
-      <c r="I40" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="270.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="115">
-        <v>1</v>
-      </c>
-      <c r="C41" s="115">
-        <v>122</v>
-      </c>
-      <c r="D41" s="82" t="s">
+      <c r="I54" s="98" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="106">
+        <v>1</v>
+      </c>
+      <c r="C55" s="106">
+        <v>132</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="78">
+        <v>1</v>
+      </c>
+      <c r="F55" s="78">
         <v>8</v>
       </c>
-      <c r="E41" s="82">
-        <v>1</v>
-      </c>
-      <c r="F41" s="82">
-        <v>8</v>
-      </c>
-      <c r="G41" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H41" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="I41" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="L41" s="65"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="119"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="E42" s="84">
-        <v>1</v>
-      </c>
-      <c r="F42" s="84">
+      <c r="G55" s="78">
+        <v>0</v>
+      </c>
+      <c r="H55" s="78">
+        <v>7</v>
+      </c>
+      <c r="I55" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="L55" s="65"/>
+    </row>
+    <row r="56" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A56" s="104"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="107"/>
+      <c r="D56" s="79" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="79">
+        <v>1</v>
+      </c>
+      <c r="F56" s="79">
+        <f t="shared" ref="F56:F58" si="1">F55+E55</f>
         <v>9</v>
       </c>
-      <c r="G42" s="84">
-        <v>0</v>
-      </c>
-      <c r="H42" s="84">
-        <v>7</v>
-      </c>
-      <c r="I42" s="98" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="119"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="84" t="s">
+      <c r="G56" s="79">
+        <v>0</v>
+      </c>
+      <c r="H56" s="79">
+        <v>15</v>
+      </c>
+      <c r="I56" s="95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="104"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="84">
-        <v>2</v>
-      </c>
-      <c r="F43" s="84">
-        <v>10</v>
-      </c>
-      <c r="G43" s="84">
-        <v>0</v>
-      </c>
-      <c r="H43" s="84">
-        <v>65535</v>
-      </c>
-      <c r="I43" s="98" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="119"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="84" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="84">
+      <c r="E57" s="79">
         <v>4</v>
       </c>
-      <c r="F44" s="84">
-        <v>12</v>
-      </c>
-      <c r="G44" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="H44" s="85">
-        <f>(2^32)-1</f>
-        <v>4294967295</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="120"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" s="83">
-        <v>4</v>
-      </c>
-      <c r="F45" s="83">
-        <v>16</v>
-      </c>
-      <c r="G45" s="83">
-        <v>0</v>
-      </c>
-      <c r="H45" s="85">
-        <f>(2^32)-1</f>
-        <v>4294967295</v>
-      </c>
-      <c r="I45" s="97" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="21">
-        <v>1</v>
-      </c>
-      <c r="C46" s="21">
-        <v>123</v>
-      </c>
-      <c r="D46" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="21">
-        <v>1</v>
-      </c>
-      <c r="F46" s="21">
-        <v>8</v>
-      </c>
-      <c r="G46" s="21">
-        <v>0</v>
-      </c>
-      <c r="H46" s="21">
-        <v>1</v>
-      </c>
-      <c r="I46" s="95" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="21">
-        <v>1</v>
-      </c>
-      <c r="C47" s="21">
-        <v>124</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E47" s="21">
-        <v>8</v>
-      </c>
-      <c r="F47" s="21">
-        <v>8</v>
-      </c>
-      <c r="G47" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H47" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="95" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="130">
-        <v>1</v>
-      </c>
-      <c r="C48" s="130">
-        <v>125</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" s="71">
-        <v>1</v>
-      </c>
-      <c r="F48" s="71">
-        <v>8</v>
-      </c>
-      <c r="G48" s="71">
-        <v>0</v>
-      </c>
-      <c r="H48" s="71">
-        <v>7</v>
-      </c>
-      <c r="I48" s="89" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="128"/>
-      <c r="B49" s="131"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>9</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10">
-        <v>1</v>
-      </c>
-      <c r="I49" s="90" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="129"/>
-      <c r="B50" s="132"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="72">
-        <v>1</v>
-      </c>
-      <c r="F50" s="72">
-        <v>10</v>
-      </c>
-      <c r="G50" s="72">
-        <v>0</v>
-      </c>
-      <c r="H50" s="72">
-        <v>1</v>
-      </c>
-      <c r="I50" s="91" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" s="21">
-        <v>1</v>
-      </c>
-      <c r="C51" s="21">
-        <v>126</v>
-      </c>
-      <c r="D51" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E51" s="21">
-        <v>1</v>
-      </c>
-      <c r="F51" s="21">
-        <v>8</v>
-      </c>
-      <c r="G51" s="21">
-        <v>0</v>
-      </c>
-      <c r="H51" s="21">
-        <v>1</v>
-      </c>
-      <c r="I51" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="109" t="s">
-        <v>214</v>
-      </c>
-      <c r="B52" s="112">
-        <v>1</v>
-      </c>
-      <c r="C52" s="112">
-        <v>127</v>
-      </c>
-      <c r="D52" s="80" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="79">
-        <v>1</v>
-      </c>
-      <c r="F52" s="79">
-        <v>8</v>
-      </c>
-      <c r="G52" s="80">
-        <v>0</v>
-      </c>
-      <c r="H52" s="80">
-        <v>7</v>
-      </c>
-      <c r="I52" s="103" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="110"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="E53" s="80">
-        <v>1</v>
-      </c>
-      <c r="F53" s="80">
-        <v>9</v>
-      </c>
-      <c r="G53" s="80">
-        <v>0</v>
-      </c>
-      <c r="H53" s="80">
-        <v>1</v>
-      </c>
-      <c r="I53" s="103" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="110"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="80">
-        <v>2</v>
-      </c>
-      <c r="F54" s="80">
-        <v>10</v>
-      </c>
-      <c r="G54" s="80">
-        <v>0</v>
-      </c>
-      <c r="H54" s="80">
-        <v>65535</v>
-      </c>
-      <c r="I54" s="104" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="81" t="s">
-        <v>215</v>
-      </c>
-      <c r="E55" s="81">
-        <v>4</v>
-      </c>
-      <c r="F55" s="81">
-        <v>12</v>
-      </c>
-      <c r="G55" s="81">
-        <v>0</v>
-      </c>
-      <c r="H55" s="102">
-        <f>(2^32)-1</f>
-        <v>4294967295</v>
-      </c>
-      <c r="I55" s="105" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="109" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="112">
-        <v>1</v>
-      </c>
-      <c r="C56" s="112">
-        <v>128</v>
-      </c>
-      <c r="D56" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="79">
-        <v>1</v>
-      </c>
-      <c r="F56" s="79">
-        <v>8</v>
-      </c>
-      <c r="G56" s="79">
-        <v>0</v>
-      </c>
-      <c r="H56" s="79">
-        <v>7</v>
-      </c>
-      <c r="I56" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="J56" s="65"/>
-    </row>
-    <row r="57" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="114"/>
-      <c r="C57" s="114"/>
-      <c r="D57" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" s="81">
-        <v>1</v>
-      </c>
-      <c r="F57" s="81">
-        <f>F56+E56</f>
-        <v>9</v>
-      </c>
-      <c r="G57" s="81">
-        <v>0</v>
-      </c>
-      <c r="H57" s="81">
-        <v>5</v>
-      </c>
-      <c r="I57" s="107" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="109" t="s">
-        <v>220</v>
-      </c>
-      <c r="B58" s="112">
-        <v>1</v>
-      </c>
-      <c r="C58" s="112">
-        <v>129</v>
-      </c>
-      <c r="D58" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="79">
-        <v>1</v>
-      </c>
-      <c r="F58" s="79">
-        <v>8</v>
-      </c>
-      <c r="G58" s="79">
-        <v>0</v>
-      </c>
-      <c r="H58" s="79">
-        <v>7</v>
-      </c>
-      <c r="I58" s="106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="165" x14ac:dyDescent="0.25">
-      <c r="A59" s="110"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" s="80">
-        <v>1</v>
-      </c>
-      <c r="F59" s="80">
-        <f>F58+E58</f>
-        <v>9</v>
-      </c>
-      <c r="G59" s="80">
-        <v>0</v>
-      </c>
-      <c r="H59" s="80">
-        <v>5</v>
-      </c>
-      <c r="I59" s="104" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="110"/>
-      <c r="B60" s="113"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="80">
-        <v>2</v>
-      </c>
-      <c r="F60" s="80">
-        <f>F59+E59</f>
-        <v>10</v>
-      </c>
-      <c r="G60" s="80">
-        <v>0</v>
-      </c>
-      <c r="H60" s="80">
-        <v>65535</v>
-      </c>
-      <c r="I60" s="104" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="86" t="s">
-        <v>221</v>
-      </c>
-      <c r="B61" s="87">
-        <v>1</v>
-      </c>
-      <c r="C61" s="87">
-        <v>130</v>
-      </c>
-      <c r="D61" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="87">
-        <v>1</v>
-      </c>
-      <c r="F61" s="87">
-        <v>8</v>
-      </c>
-      <c r="G61" s="87">
-        <v>0</v>
-      </c>
-      <c r="H61" s="87">
-        <v>7</v>
-      </c>
-      <c r="I61" s="108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="109" t="s">
-        <v>222</v>
-      </c>
-      <c r="B62" s="112">
-        <v>1</v>
-      </c>
-      <c r="C62" s="112">
-        <v>131</v>
-      </c>
-      <c r="D62" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="79">
-        <v>1</v>
-      </c>
-      <c r="F62" s="79">
-        <v>8</v>
-      </c>
-      <c r="G62" s="79">
-        <v>0</v>
-      </c>
-      <c r="H62" s="79">
-        <v>7</v>
-      </c>
-      <c r="I62" s="106" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="285" x14ac:dyDescent="0.25">
-      <c r="A63" s="110"/>
-      <c r="B63" s="113"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" s="80">
-        <v>1</v>
-      </c>
-      <c r="F63" s="80">
-        <f t="shared" ref="F63:F64" si="0">F62+E62</f>
-        <v>9</v>
-      </c>
-      <c r="G63" s="80">
-        <v>0</v>
-      </c>
-      <c r="H63" s="80">
-        <v>16</v>
-      </c>
-      <c r="I63" s="104" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="111"/>
-      <c r="B64" s="114"/>
-      <c r="C64" s="114"/>
-      <c r="D64" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="81">
-        <v>4</v>
-      </c>
-      <c r="F64" s="81">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G64" s="81">
-        <v>0</v>
-      </c>
-      <c r="H64" s="81">
-        <f>(2^32)-1</f>
-        <v>4294967295</v>
-      </c>
-      <c r="I64" s="107" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="109" t="s">
-        <v>223</v>
-      </c>
-      <c r="B65" s="112">
-        <v>1</v>
-      </c>
-      <c r="C65" s="112">
-        <v>132</v>
-      </c>
-      <c r="D65" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="79">
-        <v>1</v>
-      </c>
-      <c r="F65" s="79">
-        <v>8</v>
-      </c>
-      <c r="G65" s="79">
-        <v>0</v>
-      </c>
-      <c r="H65" s="79">
-        <v>7</v>
-      </c>
-      <c r="I65" s="106" t="s">
-        <v>27</v>
-      </c>
-      <c r="L65" s="65"/>
-    </row>
-    <row r="66" spans="1:12" ht="285" x14ac:dyDescent="0.25">
-      <c r="A66" s="110"/>
-      <c r="B66" s="113"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" s="80">
-        <v>1</v>
-      </c>
-      <c r="F66" s="80">
-        <f t="shared" ref="F66:F68" si="1">F65+E65</f>
-        <v>9</v>
-      </c>
-      <c r="G66" s="80">
-        <v>0</v>
-      </c>
-      <c r="H66" s="80">
-        <v>15</v>
-      </c>
-      <c r="I66" s="104" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A67" s="110"/>
-      <c r="B67" s="113"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="80">
-        <v>4</v>
-      </c>
-      <c r="F67" s="80">
+      <c r="F57" s="79">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G67" s="80">
-        <v>0</v>
-      </c>
-      <c r="H67" s="80">
+      <c r="G57" s="79">
+        <v>0</v>
+      </c>
+      <c r="H57" s="79">
         <v>4294967295</v>
       </c>
-      <c r="I67" s="104" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="114"/>
-      <c r="C68" s="114"/>
-      <c r="D68" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="81">
+      <c r="I57" s="95" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="105"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="80">
         <v>2</v>
       </c>
-      <c r="F68" s="81">
+      <c r="F58" s="80">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G68" s="81">
-        <v>0</v>
-      </c>
-      <c r="H68" s="102">
+      <c r="G58" s="80">
+        <v>0</v>
+      </c>
+      <c r="H58" s="93">
         <v>65535</v>
       </c>
-      <c r="I68" s="105" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="86" t="s">
-        <v>224</v>
-      </c>
-      <c r="B69" s="87">
-        <v>1</v>
-      </c>
-      <c r="C69" s="87">
+      <c r="I58" s="96" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="83">
+        <v>1</v>
+      </c>
+      <c r="C59" s="83">
         <v>133</v>
       </c>
-      <c r="D69" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="87">
-        <v>1</v>
-      </c>
-      <c r="F69" s="87">
+      <c r="D59" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="83">
+        <v>1</v>
+      </c>
+      <c r="F59" s="83">
         <v>8</v>
       </c>
-      <c r="G69" s="87">
-        <v>0</v>
-      </c>
-      <c r="H69" s="87">
+      <c r="G59" s="83">
+        <v>0</v>
+      </c>
+      <c r="H59" s="83">
         <v>7</v>
       </c>
-      <c r="I69" s="108" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="78" t="s">
+      <c r="I59" s="99" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B60" s="21">
+        <v>1</v>
+      </c>
+      <c r="C60" s="21">
+        <v>200</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" s="91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="73">
+        <v>3</v>
+      </c>
+      <c r="C61" s="73">
+        <v>0</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I61" s="92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="21">
-        <v>1</v>
-      </c>
-      <c r="C70" s="21">
-        <v>200</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="100" t="s">
+      <c r="B69" s="10">
+        <v>2</v>
+      </c>
+      <c r="C69" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="77" t="s">
+      <c r="B70" s="10">
+        <v>1</v>
+      </c>
+      <c r="C70" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="74">
-        <v>3</v>
-      </c>
-      <c r="C71" s="74">
-        <v>0</v>
-      </c>
-      <c r="D71" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E71" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F71" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="G71" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H71" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="I71" s="101" t="s">
+      <c r="B71" s="10">
+        <v>4</v>
+      </c>
+      <c r="C71" s="14">
+        <v>4</v>
+      </c>
+      <c r="D71" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="26" t="s">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="29" t="s">
+      <c r="B72" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C72" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77" s="31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="B78" s="10">
-        <v>1</v>
-      </c>
-      <c r="C78" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B79" s="10">
+      <c r="B73" s="15">
         <v>2</v>
       </c>
-      <c r="C79" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B80" s="10">
-        <v>1</v>
-      </c>
-      <c r="C80" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B81" s="10">
-        <v>4</v>
-      </c>
-      <c r="C81" s="14">
-        <v>4</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="15">
-        <v>2</v>
-      </c>
-      <c r="C83" s="25"/>
+      <c r="C73" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="B48:B50"/>
+  <mergeCells count="39">
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -4179,26 +3877,21 @@
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="B41:B45"/>
-    <mergeCell ref="C41:C45"/>
-    <mergeCell ref="A65:A68"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="C65:C68"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4210,10 +3903,10 @@
   <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4234,31 +3927,31 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="63" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="63" t="s">
-        <v>14</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -4266,28 +3959,28 @@
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="121" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="124">
+      <c r="A2" s="109" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="112">
         <v>2</v>
       </c>
-      <c r="C2" s="124">
+      <c r="C2" s="112">
         <v>201</v>
       </c>
-      <c r="D2" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="71">
+      <c r="D2" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="70">
         <v>2</v>
       </c>
-      <c r="F2" s="71">
+      <c r="F2" s="70">
         <v>8</v>
       </c>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -4295,11 +3988,11 @@
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
       <c r="D3" s="10" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -4310,7 +4003,7 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="11" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -4319,22 +4012,22 @@
       <c r="T3" s="2"/>
     </row>
     <row r="4" spans="1:20" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="72" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="72">
-        <v>1</v>
-      </c>
-      <c r="F4" s="72">
+      <c r="A4" s="111"/>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="71">
+        <v>1</v>
+      </c>
+      <c r="F4" s="71">
         <v>11</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="48" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -4342,28 +4035,28 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="124">
+      <c r="A5" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="112">
         <v>2</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="112">
         <v>202</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="71">
+      <c r="D5" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="70">
         <v>4</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="70">
         <v>8</v>
       </c>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
       <c r="I5" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -4371,11 +4064,11 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -4390,7 +4083,7 @@
         <v>7</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -4398,20 +4091,20 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="123"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="72">
+      <c r="A7" s="111"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="71">
         <v>13</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="20"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -4419,28 +4112,28 @@
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="124">
+      <c r="A8" s="109" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="112">
         <v>2</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="112">
         <v>203</v>
       </c>
-      <c r="D8" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="E8" s="71">
+      <c r="D8" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="70">
         <v>4</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="70">
         <v>8</v>
       </c>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
       <c r="I8" s="19" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -4448,11 +4141,11 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="10">
         <v>1</v>
@@ -4467,7 +4160,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -4475,20 +4168,20 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="72">
+      <c r="A10" s="111"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="71">
         <v>13</v>
       </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
       <c r="I10" s="20"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -4496,41 +4189,41 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="121" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="124">
+      <c r="A11" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="112">
         <v>2</v>
       </c>
-      <c r="C11" s="124">
+      <c r="C11" s="112">
         <v>204</v>
       </c>
-      <c r="D11" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="71">
-        <v>1</v>
-      </c>
-      <c r="F11" s="71">
+      <c r="D11" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="70">
+        <v>1</v>
+      </c>
+      <c r="F11" s="70">
         <v>8</v>
       </c>
-      <c r="G11" s="71">
-        <v>0</v>
-      </c>
-      <c r="H11" s="71">
+      <c r="G11" s="70">
+        <v>0</v>
+      </c>
+      <c r="H11" s="70">
         <v>7</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
+      <c r="A12" s="110"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
@@ -4545,16 +4238,16 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
+      <c r="A13" s="110"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -4569,16 +4262,16 @@
         <v>1</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="10" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="E14" s="10">
         <v>1</v>
@@ -4593,16 +4286,16 @@
         <v>1</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
+      <c r="A15" s="110"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="10" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E15" s="10">
         <v>1</v>
@@ -4617,16 +4310,16 @@
         <v>3</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
+      <c r="A16" s="110"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -4641,16 +4334,16 @@
         <v>1</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
+      <c r="A17" s="110"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -4665,16 +4358,16 @@
         <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="10" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
@@ -4689,16 +4382,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="125"/>
-      <c r="C19" s="125"/>
+      <c r="A19" s="110"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="10" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
@@ -4713,16 +4406,16 @@
         <v>255</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="125"/>
-      <c r="C20" s="125"/>
+      <c r="A20" s="110"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="10" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
@@ -4737,16 +4430,16 @@
         <v>255</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="10" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
@@ -4761,16 +4454,16 @@
         <v>255</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="125"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="10" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E22" s="10">
         <v>1</v>
@@ -4785,16 +4478,16 @@
         <v>255</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="10" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E23" s="10">
         <v>2</v>
@@ -4809,16 +4502,16 @@
         <v>65535</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="125"/>
-      <c r="C24" s="125"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="10" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E24" s="10">
         <v>2</v>
@@ -4833,16 +4526,16 @@
         <v>65535</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
-      <c r="B25" s="125"/>
-      <c r="C25" s="125"/>
+      <c r="A25" s="110"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="10" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E25" s="10">
         <v>2</v>
@@ -4857,71 +4550,71 @@
         <v>65535</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="123"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
-      <c r="D26" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="72">
+      <c r="A26" s="111"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" s="71">
         <v>2</v>
       </c>
-      <c r="F26" s="72">
+      <c r="F26" s="71">
         <v>26</v>
       </c>
-      <c r="G26" s="72">
-        <v>0</v>
-      </c>
-      <c r="H26" s="72">
+      <c r="G26" s="71">
+        <v>0</v>
+      </c>
+      <c r="H26" s="71">
         <v>65535</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="124">
+      <c r="A27" s="109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="112">
         <v>2</v>
       </c>
-      <c r="C27" s="124">
+      <c r="C27" s="112">
         <v>205</v>
       </c>
-      <c r="D27" s="71" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="71">
+      <c r="D27" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="70">
         <v>8</v>
       </c>
-      <c r="F27" s="71">
+      <c r="F27" s="70">
         <v>8</v>
       </c>
-      <c r="G27" s="71">
-        <v>0</v>
-      </c>
-      <c r="H27" s="71">
+      <c r="G27" s="70">
+        <v>0</v>
+      </c>
+      <c r="H27" s="70">
         <f>(2^64)-1</f>
         <v>1.8446744073709552E+19</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
-      <c r="B28" s="125"/>
-      <c r="C28" s="125"/>
+      <c r="A28" s="110"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E28" s="10">
         <v>8</v>
@@ -4938,39 +4631,39 @@
         <v>1.8446744073709552E+19</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="123"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="E29" s="72">
+      <c r="A29" s="111"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="71">
         <v>8</v>
       </c>
-      <c r="F29" s="72">
+      <c r="F29" s="71">
         <f>F28+E28</f>
         <v>24</v>
       </c>
-      <c r="G29" s="72">
-        <v>0</v>
-      </c>
-      <c r="H29" s="72">
+      <c r="G29" s="71">
+        <v>0</v>
+      </c>
+      <c r="H29" s="71">
         <f t="shared" si="0"/>
         <v>1.8446744073709552E+19</v>
       </c>
       <c r="I29" s="20" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="J29" s="1"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="78" t="s">
-        <v>160</v>
+      <c r="A30" s="77" t="s">
+        <v>153</v>
       </c>
       <c r="B30" s="21">
         <v>2</v>
@@ -4979,7 +4672,7 @@
         <v>206</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E30" s="21">
         <v>4</v>
@@ -4994,13 +4687,13 @@
         <v>65535</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="78" t="s">
-        <v>163</v>
+      <c r="A31" s="77" t="s">
+        <v>156</v>
       </c>
       <c r="B31" s="21">
         <v>2</v>
@@ -5009,10 +4702,10 @@
         <v>207</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F31" s="21">
         <v>8</v>
@@ -5020,167 +4713,167 @@
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" ht="408" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="B32" s="74">
+      <c r="A32" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="73">
         <v>2</v>
       </c>
       <c r="C32" s="60">
         <v>210</v>
       </c>
-      <c r="D32" s="74" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="74">
+      <c r="D32" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="E32" s="73">
         <v>1</v>
       </c>
       <c r="F32" s="60">
         <v>8</v>
       </c>
-      <c r="G32" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="I32" s="73" t="s">
-        <v>168</v>
+      <c r="G32" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="72" t="s">
+        <v>161</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="127" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="130">
+      <c r="A33" s="115" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" s="118">
         <v>2</v>
       </c>
-      <c r="C33" s="124">
+      <c r="C33" s="112">
         <v>211</v>
       </c>
-      <c r="D33" s="71" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="71">
-        <v>1</v>
-      </c>
-      <c r="F33" s="71">
+      <c r="D33" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="70">
+        <v>1</v>
+      </c>
+      <c r="F33" s="70">
         <v>8</v>
       </c>
-      <c r="G33" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="71" t="s">
-        <v>34</v>
+      <c r="G33" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="70" t="s">
+        <v>33</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="129"/>
-      <c r="B34" s="132"/>
-      <c r="C34" s="126"/>
-      <c r="D34" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="72">
-        <v>1</v>
-      </c>
-      <c r="F34" s="72">
+      <c r="A34" s="117"/>
+      <c r="B34" s="120"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="71">
+        <v>1</v>
+      </c>
+      <c r="F34" s="71">
         <v>9</v>
       </c>
-      <c r="G34" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="72" t="s">
-        <v>34</v>
+      <c r="G34" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="71" t="s">
+        <v>33</v>
       </c>
       <c r="I34" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="225.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="127" t="s">
-        <v>172</v>
-      </c>
-      <c r="B35" s="130">
+      <c r="A35" s="115" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="118">
         <v>2</v>
       </c>
-      <c r="C35" s="124">
+      <c r="C35" s="112">
         <v>212</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="E35" s="70">
+        <v>1</v>
+      </c>
+      <c r="F35" s="70">
+        <v>8</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="117"/>
+      <c r="B36" s="120"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="71">
+        <v>1</v>
+      </c>
+      <c r="F36" s="71">
+        <v>9</v>
+      </c>
+      <c r="G36" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" s="48" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" s="71">
-        <v>1</v>
-      </c>
-      <c r="F35" s="71">
-        <v>8</v>
-      </c>
-      <c r="G35" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="H35" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I35" s="59" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="129"/>
-      <c r="B36" s="132"/>
-      <c r="C36" s="126"/>
-      <c r="D36" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="72">
-        <v>1</v>
-      </c>
-      <c r="F36" s="72">
-        <v>9</v>
-      </c>
-      <c r="G36" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="26" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B38" s="27"/>
       <c r="C38" s="28"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="29" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B39" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>10</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>11</v>
       </c>
       <c r="J39" s="1"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B40" s="10">
         <v>1</v>
@@ -5192,7 +4885,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B41" s="10">
         <v>2</v>
@@ -5204,7 +4897,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B42" s="10">
         <v>1</v>
@@ -5216,7 +4909,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B43" s="10">
         <v>4</v>
@@ -5225,15 +4918,15 @@
         <v>4</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="14">
         <v>8</v>
@@ -5241,7 +4934,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B45" s="15">
         <v>2</v>
@@ -5285,7 +4978,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5301,45 +4994,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
-        <v>175</v>
-      </c>
-      <c r="B2" s="134">
+      <c r="A2" s="121" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="122">
         <v>4</v>
       </c>
-      <c r="C2" s="134">
+      <c r="C2" s="122">
         <v>201</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="E2" s="21">
         <v>2</v>
@@ -5353,15 +5046,15 @@
         <v>65535</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="122"/>
       <c r="D3" s="21" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E3" s="21">
         <v>1</v>
@@ -5375,43 +5068,43 @@
         <v>255</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="74" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="74">
-        <v>1</v>
-      </c>
-      <c r="F4" s="74">
+      <c r="A4" s="115"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="73">
+        <v>1</v>
+      </c>
+      <c r="F4" s="73">
         <v>11</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="133" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="134">
+      <c r="A5" s="121" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="122">
         <v>4</v>
       </c>
-      <c r="C5" s="134">
+      <c r="C5" s="122">
         <v>202</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E5" s="21">
         <v>4</v>
@@ -5425,15 +5118,15 @@
         <v>4294967295</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="21">
         <v>1</v>
@@ -5449,15 +5142,15 @@
         <v>8</v>
       </c>
       <c r="I6" s="35" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="133"/>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="122"/>
       <c r="D7" s="21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E7" s="21">
         <v>8</v>
@@ -5476,40 +5169,40 @@
       <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="127"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="74" t="s">
-        <v>180</v>
-      </c>
-      <c r="E8" s="74">
+      <c r="A8" s="115"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="73">
         <v>2</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="73">
         <f>F7+E7</f>
         <v>21</v>
       </c>
-      <c r="G8" s="74">
-        <v>0</v>
-      </c>
-      <c r="H8" s="74">
+      <c r="G8" s="73">
+        <v>0</v>
+      </c>
+      <c r="H8" s="73">
         <f>(2^(8*E8))-1</f>
         <v>65535</v>
       </c>
       <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="133" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="134">
+      <c r="A9" s="121" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="122">
         <v>4</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="122">
         <v>203</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="E9" s="21">
         <v>1</v>
@@ -5524,15 +5217,15 @@
         <v>1</v>
       </c>
       <c r="I9" s="35" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="122"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="21" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E10" s="21">
         <v>2</v>
@@ -5549,15 +5242,15 @@
         <v>65535</v>
       </c>
       <c r="I10" s="35" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134"/>
-      <c r="C11" s="134"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="21" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E11" s="21">
         <v>4</v>
@@ -5574,15 +5267,15 @@
         <v>4294967295</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="21" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E12" s="21">
         <v>4</v>
@@ -5599,15 +5292,15 @@
         <v>4294967295</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="133"/>
-      <c r="B13" s="134"/>
-      <c r="C13" s="134"/>
+      <c r="A13" s="121"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="21" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E13" s="21">
         <v>4</v>
@@ -5624,73 +5317,73 @@
         <v>4294967295</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="127"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="74" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="74">
+      <c r="A14" s="115"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="118"/>
+      <c r="D14" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="E14" s="73">
         <v>6</v>
       </c>
-      <c r="F14" s="74">
+      <c r="F14" s="73">
         <f>E13+F13</f>
         <v>23</v>
       </c>
-      <c r="G14" s="74">
-        <v>0</v>
-      </c>
-      <c r="H14" s="74">
+      <c r="G14" s="73">
+        <v>0</v>
+      </c>
+      <c r="H14" s="73">
         <f t="shared" si="1"/>
         <v>281474976710655</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" s="71">
+      <c r="A15" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="70">
         <v>4</v>
       </c>
-      <c r="C15" s="71">
+      <c r="C15" s="70">
         <v>204</v>
       </c>
-      <c r="D15" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="71">
-        <v>0</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71">
+      <c r="D15" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="70">
+        <v>0</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="133" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="134">
+      <c r="A16" s="121" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="122">
         <v>4</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="122">
         <v>205</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="21">
         <v>1</v>
@@ -5701,44 +5394,44 @@
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
       <c r="I16" s="35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="127"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="74">
-        <v>1</v>
-      </c>
-      <c r="F17" s="74">
+      <c r="A17" s="115"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="73">
+        <v>1</v>
+      </c>
+      <c r="F17" s="73">
         <v>9</v>
       </c>
-      <c r="G17" s="74">
-        <v>0</v>
-      </c>
-      <c r="H17" s="74">
+      <c r="G17" s="73">
+        <v>0</v>
+      </c>
+      <c r="H17" s="73">
         <v>7</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="133" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="134">
+      <c r="A18" s="121" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="122">
         <v>4</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="122">
         <v>206</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="21">
         <v>1</v>
@@ -5749,15 +5442,15 @@
       <c r="G18" s="21"/>
       <c r="H18" s="21"/>
       <c r="I18" s="35" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="133"/>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
+      <c r="A19" s="121"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="21">
         <v>1</v>
@@ -5772,66 +5465,66 @@
         <v>7</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="121"/>
-      <c r="B20" s="124"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="71">
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="70">
         <v>2</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="70">
         <v>10</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="B21" s="74">
+      <c r="A21" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="73">
         <v>4</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="73">
         <v>254</v>
       </c>
-      <c r="D21" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
+      <c r="D21" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
       <c r="I21" s="36"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="75"/>
+        <v>96</v>
+      </c>
+      <c r="B24" s="74"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="40" t="s">
         <v>10</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>11</v>
       </c>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -5843,7 +5536,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B27" s="7">
         <v>2</v>
@@ -5855,7 +5548,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -5867,7 +5560,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B29" s="7">
         <v>4</v>
@@ -5876,15 +5569,15 @@
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="8">
         <v>8</v>
@@ -5893,7 +5586,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B31" s="9">
         <v>2</v>
@@ -5926,16 +5619,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85916385-3AE6-44B0-8247-94213908E1EA}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="124" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="138.7109375" customWidth="1"/>
@@ -5946,13 +5639,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D1" s="51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,13 +5653,13 @@
         <v>44006</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D2" s="54" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="340.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5974,13 +5667,13 @@
         <v>44218</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="267.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5988,55 +5681,69 @@
         <v>44232</v>
       </c>
       <c r="B4" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="331.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="123">
+        <v>44246</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="123">
+        <v>44353</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="123">
+        <v>44383</v>
+      </c>
+      <c r="B7" s="67" t="s">
         <v>204</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C7" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D7" s="69" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="331.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="67">
-        <v>44246</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="67">
-        <v>44353</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="69" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="191.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="67">
-        <v>44383</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>211</v>
-      </c>
-      <c r="C7" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>213</v>
+    <row r="8" spans="1:4" ht="318.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="123">
+        <v>44911</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6045,9 +5752,10 @@
     <hyperlink ref="C5" r:id="rId2" xr:uid="{7A8E3B5E-6741-4AC1-9280-D40135DD6983}"/>
     <hyperlink ref="C6" r:id="rId3" xr:uid="{608146D8-F1CE-48DB-AF6A-448ED1C2AD9F}"/>
     <hyperlink ref="C7" r:id="rId4" display="erico.marques@maua.br" xr:uid="{B7C70861-E257-4385-B641-D1600626C4EE}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{4840F4D2-D722-4750-B5E6-885A6570BA74}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
